--- a/final_report/Trace_Report_PALM OIL.xlsx
+++ b/final_report/Trace_Report_PALM OIL.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rail car\final_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25093F43-B840-438E-8A2F-B45A0DF743BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{456B20B6-A76E-46AF-AC2F-1B107180D185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17865" yWindow="-5985" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Test_format_trace" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_format_trace!$A$3:$O$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_format_trace!$A$4:$O$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="51">
   <si>
     <t>Initial</t>
   </si>
@@ -80,7 +80,7 @@
     <t>Arrive In-Transit</t>
   </si>
   <si>
-    <t>MRONP0</t>
+    <t>MNPDV2</t>
   </si>
   <si>
     <t>JOHNSTOWN</t>
@@ -89,31 +89,34 @@
     <t>CO</t>
   </si>
   <si>
+    <t>TILX</t>
+  </si>
+  <si>
+    <t>CRESTON</t>
+  </si>
+  <si>
+    <t>Departure</t>
+  </si>
+  <si>
+    <t>MWCNP2</t>
+  </si>
+  <si>
     <t>UTLX</t>
   </si>
   <si>
-    <t>GREEN RIVER</t>
-  </si>
-  <si>
-    <t>MRVGR3</t>
-  </si>
-  <si>
-    <t>TILX</t>
+    <t>GREELEY</t>
+  </si>
+  <si>
+    <t>Junction Delivery</t>
+  </si>
+  <si>
+    <t>GWR</t>
   </si>
   <si>
     <t>Placed Actual</t>
   </si>
   <si>
-    <t>WESTWEGO</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>Junction Received</t>
-  </si>
-  <si>
-    <t>NOGC</t>
+    <t>KELIM</t>
   </si>
   <si>
     <t>Gross Weight</t>
@@ -125,40 +128,67 @@
     <t>Net Weight</t>
   </si>
   <si>
-    <t>Description unknown, completed 10/03/2023 10:52:32 EDT, by WPJTOWN1.The search returned: 9 events.</t>
+    <t>Description unknown, completed 10/24/2023 07:54:28 EDT, by WPJTOWN1.The search returned: 17 events.</t>
   </si>
   <si>
     <t>Car_no</t>
   </si>
   <si>
+    <t>TCIX250760</t>
+  </si>
+  <si>
+    <t>TCIX250766</t>
+  </si>
+  <si>
+    <t>TILX252319</t>
+  </si>
+  <si>
+    <t>UTLX645561</t>
+  </si>
+  <si>
+    <t>TILX252283</t>
+  </si>
+  <si>
+    <t>TCIX256500</t>
+  </si>
+  <si>
+    <t>TCIX256424</t>
+  </si>
+  <si>
+    <t>TCIX250780</t>
+  </si>
+  <si>
+    <t>UTLX645560</t>
+  </si>
+  <si>
+    <t>UTLX645570</t>
+  </si>
+  <si>
     <t>TCIX258654</t>
   </si>
   <si>
-    <t>UTLX645570</t>
-  </si>
-  <si>
-    <t>UTLX645560</t>
-  </si>
-  <si>
-    <t>TILX253449</t>
-  </si>
-  <si>
-    <t>TCIX256422</t>
-  </si>
-  <si>
-    <t>TCIX256189</t>
-  </si>
-  <si>
-    <t>TCIX256202</t>
-  </si>
-  <si>
-    <t>TCIX256439</t>
+    <t>TCIX256434</t>
+  </si>
+  <si>
+    <t>TCIX256419</t>
+  </si>
+  <si>
+    <t>UTLX669035</t>
   </si>
   <si>
     <t>UTLX669036</t>
   </si>
   <si>
-    <t>5 On Hand</t>
+    <t>TILX253454</t>
+  </si>
+  <si>
+    <t>UTLX669029</t>
+  </si>
+  <si>
+    <t>3 CO</t>
+  </si>
+  <si>
+    <t>10 On Hand</t>
   </si>
 </sst>
 </file>
@@ -301,7 +331,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,6 +514,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FA459"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,10 +684,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1007,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K12"/>
+      <selection activeCell="K5" sqref="K5:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,7 +1059,7 @@
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
@@ -1034,104 +1071,64 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2">
-        <v>253449</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1424</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="2">
-        <v>170000</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>170000</v>
-      </c>
-      <c r="O4" t="s">
-        <v>34</v>
+      <c r="N4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1139,7 +1136,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="2">
-        <v>256422</v>
+        <v>256500</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -1148,16 +1145,16 @@
         <v>16</v>
       </c>
       <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2">
         <v>9</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
+        <v>1330</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1525</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
@@ -1167,16 +1164,16 @@
         <v>16</v>
       </c>
       <c r="L5" s="2">
-        <v>170000</v>
+        <v>179700</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>170000</v>
+        <v>179700</v>
       </c>
       <c r="O5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1184,7 +1181,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>256189</v>
+        <v>256424</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -1193,16 +1190,16 @@
         <v>16</v>
       </c>
       <c r="E6" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1626</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1525</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
@@ -1212,16 +1209,16 @@
         <v>16</v>
       </c>
       <c r="L6" s="2">
-        <v>170000</v>
+        <v>179650</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>170000</v>
+        <v>179650</v>
       </c>
       <c r="O6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1229,7 +1226,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>256202</v>
+        <v>250780</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -1238,16 +1235,16 @@
         <v>16</v>
       </c>
       <c r="E7" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1626</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1525</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
@@ -1257,24 +1254,24 @@
         <v>16</v>
       </c>
       <c r="L7" s="2">
-        <v>170000</v>
+        <v>179600</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>170000</v>
+        <v>179600</v>
       </c>
       <c r="O7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2">
-        <v>256439</v>
+        <v>645560</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
@@ -1283,16 +1280,16 @@
         <v>16</v>
       </c>
       <c r="E8" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2">
+        <v>17</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1415</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1525</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
@@ -1302,210 +1299,617 @@
         <v>16</v>
       </c>
       <c r="L8" s="2">
-        <v>170000</v>
+        <v>179750</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="2">
+        <v>179750</v>
+      </c>
+      <c r="O8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2">
+        <v>645570</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2">
+        <v>17</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1415</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="2">
+        <v>179550</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>179550</v>
+      </c>
+      <c r="O9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>258654</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2">
+        <v>17</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1415</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="2">
+        <v>173850</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>173850</v>
+      </c>
+      <c r="O10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>256434</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2">
+        <v>17</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1415</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="2">
+        <v>179950</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>179950</v>
+      </c>
+      <c r="O11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>256419</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2">
+        <v>18</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1602</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="2">
+        <v>180100</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>180100</v>
+      </c>
+      <c r="O12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2">
+        <v>669035</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2">
+        <v>23</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1457</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="2">
+        <v>179850</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>179850</v>
+      </c>
+      <c r="O13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2">
+        <v>669036</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2">
+        <v>23</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1457</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="2">
         <v>170000</v>
       </c>
-      <c r="O8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>170000</v>
+      </c>
+      <c r="O14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9">
-        <v>669036</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B15" s="3">
+        <v>253454</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3">
+        <v>23</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2244</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="3">
+        <v>180000</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>180000</v>
+      </c>
+      <c r="O15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3">
+        <v>669029</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="3">
+        <v>10</v>
+      </c>
+      <c r="F16" s="3">
+        <v>23</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2244</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="3">
+        <v>179850</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>179850</v>
+      </c>
+      <c r="O16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3">
+        <v>252283</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3">
+        <v>10</v>
+      </c>
+      <c r="F17" s="3">
+        <v>22</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1506</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>450</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9">
+      <c r="J17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="3">
+        <v>178200</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>178200</v>
+      </c>
+      <c r="O17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>250760</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>23</v>
+      </c>
+      <c r="G18">
+        <v>2346</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18">
         <v>170000</v>
       </c>
-      <c r="M9">
+      <c r="M18">
         <v>0</v>
       </c>
-      <c r="N9">
+      <c r="N18">
         <v>170000</v>
       </c>
-      <c r="O9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>258654</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="O18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>250766</v>
+      </c>
+      <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D19" t="s">
         <v>12</v>
       </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>801</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>23</v>
+      </c>
+      <c r="G19">
+        <v>2346</v>
+      </c>
+      <c r="H19" t="s">
         <v>13</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I19" t="s">
         <v>14</v>
       </c>
-      <c r="J10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10">
-        <v>173850</v>
-      </c>
-      <c r="M10">
+      <c r="J19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19">
+        <v>170000</v>
+      </c>
+      <c r="M19">
         <v>0</v>
       </c>
-      <c r="N10">
-        <v>173850</v>
-      </c>
-      <c r="O10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="N19">
+        <v>170000</v>
+      </c>
+      <c r="O19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B11">
-        <v>645570</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B20">
+        <v>252319</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
         <v>12</v>
       </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>801</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11">
-        <v>179550</v>
-      </c>
-      <c r="M11">
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>24</v>
+      </c>
+      <c r="G20">
+        <v>241</v>
+      </c>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20">
+        <v>180150</v>
+      </c>
+      <c r="M20">
         <v>0</v>
       </c>
-      <c r="N11">
-        <v>179550</v>
-      </c>
-      <c r="O11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>645560</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="N20">
+        <v>180150</v>
+      </c>
+      <c r="O20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>645561</v>
+      </c>
+      <c r="C21" t="s">
         <v>18</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>1823</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>24</v>
+      </c>
+      <c r="G21">
+        <v>241</v>
+      </c>
+      <c r="H21" t="s">
         <v>19</v>
       </c>
-      <c r="J12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12">
-        <v>179750</v>
-      </c>
-      <c r="M12">
+      <c r="I21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21">
+        <v>180000</v>
+      </c>
+      <c r="M21">
         <v>0</v>
       </c>
-      <c r="N12">
-        <v>179750</v>
-      </c>
-      <c r="O12" t="s">
-        <v>33</v>
+      <c r="N21">
+        <v>180000</v>
+      </c>
+      <c r="O21" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:O12">
-    <sortCondition ref="D4:D12" customList="CO"/>
-    <sortCondition ref="H4:H12" customList="Placed Actual,Placed Construct"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:O21">
+    <sortCondition ref="D5:D21" customList="CO"/>
+    <sortCondition ref="H5:H21" customList="Placed Actual,Placed Construct"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
